--- a/docs/数据结构/DMS-数据结构-通用主数据.xlsx
+++ b/docs/数据结构/DMS-数据结构-通用主数据.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20376"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-dms\docs\数据结构\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\sei6.0\dms\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3443F0B2-A6B3-4630-8EA3-2CC153C735A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C2C4E6-1730-4A89-8A0B-BD2A25C63B14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="816" yWindow="-120" windowWidth="28116" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="税类型" sheetId="16" r:id="rId2"/>
     <sheet name="利润中心" sheetId="17" r:id="rId3"/>
+    <sheet name="公司项目" sheetId="18" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,8 +27,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>冯华</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{38205DAD-EBE3-48A8-A35F-A3A0ECB8796B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>（）内的编号：第一个标识索引，相同表示同一个索引。第二个表示同一索引的列顺序</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="137">
   <si>
     <t>描述</t>
   </si>
@@ -400,6 +425,131 @@
   </si>
   <si>
     <t>uk_pro_cen_code_erp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改人Id</t>
+  </si>
+  <si>
+    <t>creator_account</t>
+  </si>
+  <si>
+    <t>creatorAccount</t>
+  </si>
+  <si>
+    <t>creator_id</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>租户代码</t>
+  </si>
+  <si>
+    <t>tenant_code</t>
+  </si>
+  <si>
+    <t>tenantCode</t>
+  </si>
+  <si>
+    <t>默认=0</t>
+  </si>
+  <si>
+    <t>冻结标识</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>内部订单名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inner_order_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>innerOrderName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部订单编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inner_order_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>innerOrderCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS项目名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbs_project_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbsProjectName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS项目和内部订单号两者必填一个</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS项目编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbs_project_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbsProjectCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx_corp_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>复合索引（多列）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>公司项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporation_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorporationProject</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +557,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,8 +642,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,8 +708,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -578,6 +762,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -616,7 +837,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -649,6 +870,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - 着色 3 2" xfId="12" xr:uid="{17BA1347-AF57-48DB-8633-215C00270EA0}"/>
@@ -711,6 +975,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1097280</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77AD39AB-031D-4434-BB83-6A0369879B65}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                  <a:ea typeface="宋体"/>
+                </a:rPr>
+                <a:t>生成脚本</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -982,14 +1324,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
@@ -1000,7 +1342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -1011,7 +1353,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="11" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>86</v>
       </c>
@@ -1022,7 +1364,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="10"/>
@@ -1044,13 +1386,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="11"/>
     <col min="7" max="7" width="18" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="11" bestFit="1" customWidth="1"/>
@@ -1058,7 +1400,7 @@
     <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>63</v>
       </c>
@@ -1075,7 +1417,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1104,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
@@ -1127,7 +1469,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
@@ -1154,7 +1496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -1175,7 +1517,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>68</v>
       </c>
@@ -1198,7 +1540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>72</v>
       </c>
@@ -1221,7 +1563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1242,7 +1584,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -1261,7 +1603,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
@@ -1280,7 +1622,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1291,7 +1633,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -1314,7 +1656,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1675,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>54</v>
       </c>
@@ -1352,7 +1694,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -1371,7 +1713,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
@@ -1390,7 +1732,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -1409,7 +1751,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -1428,7 +1770,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
@@ -1447,7 +1789,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
@@ -1477,17 +1819,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25046D33-B14E-4F12-B729-8D04407FED9A}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="11"/>
     <col min="7" max="7" width="18" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="11" bestFit="1" customWidth="1"/>
@@ -1495,7 +1837,7 @@
     <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
@@ -1512,7 +1854,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1541,7 +1883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
@@ -1564,7 +1906,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
@@ -1589,7 +1931,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -1610,7 +1952,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>93</v>
       </c>
@@ -1635,7 +1977,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>98</v>
       </c>
@@ -1654,7 +1996,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>96</v>
       </c>
@@ -1673,7 +2015,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
@@ -1696,7 +2038,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1707,7 +2049,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
@@ -1732,7 +2074,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -1751,7 +2093,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>54</v>
       </c>
@@ -1770,7 +2112,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -1789,7 +2131,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
@@ -1808,7 +2150,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -1827,7 +2169,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -1846,7 +2188,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -1865,7 +2207,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1889,4 +2231,472 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C827D4F1-2A92-45FC-871C-8FD9724790F2}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="31" style="12" customWidth="1"/>
+    <col min="3" max="3" width="27" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="12" customWidth="1"/>
+    <col min="10" max="10" width="75.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!生成脚本">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1097280</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>
--- a/docs/数据结构/DMS-数据结构-通用主数据.xlsx
+++ b/docs/数据结构/DMS-数据结构-通用主数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\sei6.0\dms\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C2C4E6-1730-4A89-8A0B-BD2A25C63B14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF5CCF-C09E-4012-BBB2-06AF38560411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="816" yWindow="-120" windowWidth="28116" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="130">
   <si>
     <t>描述</t>
   </si>
@@ -461,59 +461,7 @@
     <t>frozen</t>
   </si>
   <si>
-    <t>内部订单名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>inner_order_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>innerOrderName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部订单编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>inner_order_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>innerOrderCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WBS项目名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wbs_project_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wbsProjectName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>WBS项目和内部订单号两者必填一个</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WBS项目编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wbs_project_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wbsProjectCode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -550,6 +498,30 @@
   </si>
   <si>
     <t>CorporationProject</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbs_project_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbsProjectId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS项目Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>innerOrderId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inner_order_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部订单Id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1006,7 +978,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77AD39AB-031D-4434-BB83-6A0369879B65}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2236,10 +2208,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C827D4F1-2A92-45FC-871C-8FD9724790F2}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2259,13 +2231,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -2280,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>0</v>
@@ -2292,7 +2264,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>4</v>
@@ -2309,13 +2281,13 @@
     </row>
     <row r="3" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>8</v>
@@ -2333,13 +2305,13 @@
     </row>
     <row r="4" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>42</v>
@@ -2367,7 +2339,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2378,16 +2350,16 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -2395,21 +2367,21 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="20" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -2420,102 +2392,102 @@
     </row>
     <row r="8" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
+      <c r="A9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -2526,16 +2498,16 @@
     </row>
     <row r="13" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -2546,16 +2518,16 @@
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2566,16 +2538,16 @@
     </row>
     <row r="15" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -2586,16 +2558,16 @@
     </row>
     <row r="16" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -2606,16 +2578,16 @@
     </row>
     <row r="17" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -2623,46 +2595,6 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" s="13" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
